--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\presupuesto_app\gestion_uene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31186252-F2F0-4E8D-97ED-D03583B9CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEA438-468B-4FDF-9D76-D49484A8AE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="55">
   <si>
     <t>Grupo</t>
   </si>
@@ -202,12 +202,6 @@
   </si>
   <si>
     <t>Ingreso Asignado</t>
-  </si>
-  <si>
-    <t>52010 UGA</t>
-  </si>
-  <si>
-    <t>52012 UPDN</t>
   </si>
 </sst>
 </file>
@@ -580,7 +574,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,15 +1377,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1D1E47-BC29-411E-9239-63BE55C76698}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1408,23 +1402,31 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>75000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>60000</v>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>550000</v>
       </c>
     </row>
   </sheetData>
